--- a/Resultados/Trabajo y Sociedad/Excel/salario perfiles arg.xlsx
+++ b/Resultados/Trabajo y Sociedad/Excel/salario perfiles arg.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Guido\Trabajo\Economia\Tematicas de Investigacion\Precariedad Mundial\precariedad.mundial\Resultados\Trabajo y Sociedad\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F516B5B-760A-46F0-876C-FA776721A756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13123" windowHeight="6100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18557" windowHeight="9849" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salario Perfiles Arg" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="26">
   <si>
     <t>grupos.calif</t>
   </si>
@@ -84,16 +102,25 @@
   <si>
     <t>Grande</t>
   </si>
+  <si>
+    <t>EPH</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>EPH ajustado por SIPA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -108,8 +135,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +163,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,15 +178,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -150,6 +214,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -433,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56:K64"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -5003,4 +5070,233 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8900D890-1F7C-484B-876B-4A65CBFF35B7}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="A1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3734.2983024639002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4400.7312000000002</v>
+      </c>
+      <c r="F2" s="5">
+        <f>E2/D2</f>
+        <v>1.1784626838987089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2014</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5117.7030583368996</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6289.7097000000003</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F10" si="0">E3/D3</f>
+        <v>1.2290102861192513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6514.2346548167197</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8420.0753000000004</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2925655500871578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4674.4431663799796</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6225.0038999999997</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3317102547683382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6370.7024036627199</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8566.8705000000009</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3447293496357065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7339.3872032163699</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10073.977000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3725910244366506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5658.7744489799197</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7783.7788</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3755237764253256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7655.34673931003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10643.6541</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3903555857692349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2014</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8852.9940690779404</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12259.992899999999</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3848414224993268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>